--- a/data/analysis/abc124/initial_destination_charging_evci_analysis.xlsx
+++ b/data/analysis/abc124/initial_destination_charging_evci_analysis.xlsx
@@ -576,10 +576,10 @@
         <v>2403870.519935897</v>
       </c>
       <c r="P2" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q2" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R2" t="n">
         <v>56</v>
@@ -615,7 +615,7 @@
         <v>73.81816298</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04517997219230249</v>
+        <v>0.04517997219221521</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2257949.930480756</v>
+        <v>2257949.930480538</v>
       </c>
       <c r="P3" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q3" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R3" t="n">
         <v>56</v>
@@ -702,10 +702,10 @@
         <v>2430334.306620887</v>
       </c>
       <c r="P4" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q4" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R4" t="n">
         <v>56</v>
@@ -765,10 +765,10 @@
         <v>2304024.074176536</v>
       </c>
       <c r="P5" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q5" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R5" t="n">
         <v>56</v>
@@ -804,7 +804,7 @@
         <v>73.82140704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03542469179662271</v>
+        <v>0.03542469179697981</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2233561.729491557</v>
+        <v>2233561.72949245</v>
       </c>
       <c r="P6" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q6" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R6" t="n">
         <v>56</v>
@@ -891,10 +891,10 @@
         <v>2193779.433494611</v>
       </c>
       <c r="P7" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q7" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R7" t="n">
         <v>56</v>
@@ -954,10 +954,10 @@
         <v>2397176.028281743</v>
       </c>
       <c r="P8" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q8" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R8" t="n">
         <v>56</v>
@@ -993,7 +993,7 @@
         <v>73.82059067</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05231500725611449</v>
+        <v>0.05231500725599836</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2275787.518140286</v>
+        <v>2275787.518139996</v>
       </c>
       <c r="P9" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q9" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R9" t="n">
         <v>56</v>
@@ -1056,7 +1056,7 @@
         <v>73.82897561999999</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03442004694647588</v>
+        <v>0.03442004694693027</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2231050.11736619</v>
+        <v>2231050.117367326</v>
       </c>
       <c r="P10" t="n">
-        <v>3465000</v>
+        <v>2310000</v>
       </c>
       <c r="Q10" t="n">
-        <v>1248060</v>
+        <v>832040</v>
       </c>
       <c r="R10" t="n">
         <v>56</v>
